--- a/dammproject/static/data/llistat curt clients beerdrive.xlsx
+++ b/dammproject/static/data/llistat curt clients beerdrive.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sadamm-my.sharepoint.com/personal/locana_damm_com/Documents/Documentos/LIDIA/00 Projectes/03 Universitats/UPC/beerdrive/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9304908-837F-4456-8C1C-7296BF17D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A1898E8-6041-4C70-9D3A-C8290771A1C9}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1115,7 +1093,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1125,10 +1104,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF181818"/>
-      <name val="Segoe UI"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1138,12 +1117,11 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1154,7 +1132,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -1163,51 +1148,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1234,116 +1232,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1355,214 +1319,244 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EFA1CD-9420-44BE-B981-8AB71F1369F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" style="8" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
         <v>15</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3">
         <v>8015</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>290</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>8005</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
@@ -1571,50 +1565,50 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>8001</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>41</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="3">
         <v>8912</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3">
@@ -1623,25 +1617,25 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="3">
         <v>8922</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="I5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3">
@@ -1650,25 +1644,25 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3">
         <v>8302</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="I6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3">
@@ -1677,75 +1671,75 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>28033</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>8003</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="I8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>127</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>8008</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="I9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="3">
@@ -1754,50 +1748,50 @@
       <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>8012</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="I10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="3">
         <v>603</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>8007</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="I11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="3">
@@ -1806,150 +1800,150 @@
       <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>8007</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="I12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3">
         <v>40</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>8003</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="I13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="3">
         <v>333</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>8007</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>8015</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="I15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="3">
         <v>11</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>8029</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="I16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="3">
         <v>70</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>8014</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="I17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="3">
@@ -1958,50 +1952,50 @@
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>8004</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="I18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>8039</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="I19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2010,100 +2004,100 @@
       <c r="D20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>8001</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="I20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="3">
         <v>68</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>8009</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="I21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="3">
         <v>17</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>8012</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="I22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="3">
         <v>27</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>8003</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="I23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="3">
@@ -2112,98 +2106,98 @@
       <c r="D24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>8002</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="I24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>8002</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="I25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="3">
         <v>560</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>8011</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="I26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="3">
         <v>103</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>8039</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="I27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="3">
@@ -2212,75 +2206,75 @@
       <c r="D28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>8001</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="I28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="3">
         <v>11</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="3">
         <v>8007</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="I29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="3">
         <v>12</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="3">
         <v>8007</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="I30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="3">
@@ -2289,200 +2283,200 @@
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="3">
         <v>8034</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="I31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="3">
         <v>50</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="3">
         <v>8009</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="I32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="3">
         <v>45</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="3">
         <v>8860</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="I33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="3">
         <v>8003</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="I34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="3">
         <v>42</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="3">
         <v>8005</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="I35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="3">
         <v>19</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="3">
         <v>8003</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="I36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C37" s="3">
         <v>8</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="3">
         <v>8003</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="I37" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="3">
         <v>70</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="3">
         <v>8002</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="I38" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="3">
@@ -2491,50 +2485,50 @@
       <c r="D39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="3">
         <v>8001</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="I39" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="3">
         <v>8</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="3">
         <v>8007</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="I40" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="3">
@@ -2543,100 +2537,100 @@
       <c r="D41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>8036</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="G41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="I41" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="3">
         <v>117</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="3">
         <v>8002</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="I42" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="3">
         <v>41</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="3">
         <v>8008</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="I43" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="3">
         <v>8003</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="I44" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C45" s="3">
@@ -2645,225 +2639,225 @@
       <c r="D45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="3">
         <v>8007</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="I45" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="3">
         <v>54</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="3">
         <v>8015</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="I46" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="3">
         <v>8018</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="I47" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="3">
         <v>235</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="3">
         <v>8036</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="I48" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C49" s="3">
         <v>32</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="3">
         <v>8010</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="I49" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C50" s="3">
         <v>211</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="3">
         <v>8018</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="I50" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="3">
         <v>8002</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="I51" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="3">
         <v>13</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="3">
         <v>8003</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="I52" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C53" s="3">
         <v>122</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="3">
         <v>8018</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="I53" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="3">
@@ -2872,125 +2866,125 @@
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="3">
         <v>8007</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="I54" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C55" s="3">
         <v>138</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="3">
         <v>8028</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="3" t="s">
+      <c r="G55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="I55" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C56" s="3">
         <v>71</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="3">
         <v>8009</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="I56" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C57" s="3">
         <v>38</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="3">
         <v>8001</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="I57" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C58" s="3">
         <v>57</v>
       </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="3">
         <v>8009</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="I58" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="3">
@@ -2999,50 +2993,50 @@
       <c r="D59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="3">
         <v>8036</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="I59" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="3">
         <v>204</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="3">
         <v>8036</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="I60" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="3">
@@ -3051,50 +3045,50 @@
       <c r="D61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="3">
         <v>8003</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="I61" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C62" s="3">
         <v>26</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="3">
         <v>8002</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="G62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="I62" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C63" s="3">
@@ -3103,25 +3097,25 @@
       <c r="D63" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="3">
         <v>8037</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="I63" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="3">
@@ -3130,225 +3124,225 @@
       <c r="D64" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="3">
         <v>8039</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="G64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="I64" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="3">
         <v>35</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="3">
         <v>8015</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="3" t="s">
+      <c r="G65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="I65" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C66" s="3">
         <v>10</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="3">
         <v>8032</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
+      <c r="G66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="I66" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="3">
         <v>76</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="3">
         <v>8039</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="3" t="s">
+      <c r="G67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="I67" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="4">
         <v>45170</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="3">
         <v>8001</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="3" t="s">
+      <c r="G68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="I68" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C69" s="3">
         <v>3</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="3">
         <v>8011</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="I69" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C70" s="3">
         <v>41</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="3">
         <v>8003</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="I70" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C71" s="3">
         <v>147</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="3">
         <v>8011</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="I71" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="3">
         <v>129</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="3">
         <v>8002</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="I72" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C73" s="3">
@@ -3357,100 +3351,100 @@
       <c r="D73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="3">
         <v>8002</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="3" t="s">
+      <c r="G73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="I73" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C74" s="3">
         <v>18</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="3">
         <v>8007</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="G74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="I74" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C75" s="3">
         <v>159</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="3">
         <v>8016</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="3" t="s">
+      <c r="G75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="I75" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C76" s="3">
         <v>9</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="3">
         <v>8003</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="G76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="I76" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C77" s="3">
@@ -3459,25 +3453,25 @@
       <c r="D77" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="3">
         <v>8037</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="3" t="s">
+      <c r="G77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="I77" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C78" s="3">
@@ -3486,25 +3480,25 @@
       <c r="D78" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="3">
         <v>8003</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="3" t="s">
+      <c r="G78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="I78" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C79" s="3">
@@ -3513,75 +3507,75 @@
       <c r="D79" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="3">
         <v>8003</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="I79" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="3">
         <v>13</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="3">
         <v>8007</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="I80" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="3">
         <v>23</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="3">
         <v>8011</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
+      <c r="G81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="I81" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C82" s="3">
@@ -3590,50 +3584,50 @@
       <c r="D82" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="3">
         <v>8002</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="I82" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C83" s="3">
         <v>283</v>
       </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="3">
         <v>8009</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="I83" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C84" s="3">
@@ -3642,50 +3636,50 @@
       <c r="D84" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F84" s="3">
         <v>28010</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84" s="3" t="s">
+      <c r="G84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="I84" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C85" s="3">
         <v>5</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="3">
         <v>8021</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="I85" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C86" s="3">
@@ -3694,98 +3688,98 @@
       <c r="D86" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F86" s="3">
         <v>8002</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="I86" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="3">
         <v>8008</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C88" s="3">
         <v>282</v>
       </c>
       <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="3">
         <v>8007</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="3" t="s">
+      <c r="G88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="I88" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C89" s="3">
         <v>83</v>
       </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="3">
         <v>8011</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="I89" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C90" s="3">
@@ -3794,25 +3788,25 @@
       <c r="D90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="3">
         <v>8015</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="3" t="s">
+      <c r="G90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="I90" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C91" s="3">
@@ -3821,50 +3815,50 @@
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="3">
         <v>8031</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
+      <c r="G91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="I91" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="3">
         <v>640</v>
       </c>
       <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="3">
         <v>8007</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="3" t="s">
+      <c r="G92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="I92" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C93" s="3">
@@ -3873,250 +3867,250 @@
       <c r="D93" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="3">
         <v>8034</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="3" t="s">
+      <c r="G93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="I93" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C94" s="3">
         <v>3</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="3">
         <v>8003</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
+      <c r="G94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="I94" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C95" s="3">
         <v>25</v>
       </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="3">
         <v>8003</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="I95" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C96" s="3">
         <v>59</v>
       </c>
       <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="3">
         <v>8002</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="3" t="s">
+      <c r="G96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="I96" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="3">
         <v>8020</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="I97" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C98" s="3">
         <v>2</v>
       </c>
       <c r="D98" s="3"/>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F98" s="3">
         <v>28001</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="I98" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C99" s="3">
         <v>16</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="3">
         <v>8002</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H99" s="3" t="s">
+      <c r="G99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="I99" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C100" s="3">
         <v>5</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="3">
         <v>8039</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
+      <c r="G100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="I100" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C101" s="3">
         <v>29</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="3">
         <v>8005</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
+      <c r="G101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="I101" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C102" s="3">
         <v>27</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="3">
         <v>8025</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
+      <c r="G102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="I102" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C103" s="3">
@@ -4125,200 +4119,200 @@
       <c r="D103" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F103" s="3">
         <v>28001</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" s="3" t="s">
+      <c r="G103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="I103" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F104" s="3">
         <v>28045</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="3" t="s">
+      <c r="G104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="I104" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C105" s="3">
         <v>8</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F105" s="3">
         <v>28013</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H105" s="3" t="s">
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="I105" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="3">
         <v>8025</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106" s="3" t="s">
+      <c r="G106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="I106" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C107" s="3">
         <v>189</v>
       </c>
       <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F107" s="3">
         <v>8013</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="I107" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C108" s="3">
         <v>11</v>
       </c>
       <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="3">
         <v>8025</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="I108" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C109" s="3">
         <v>5</v>
       </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F109" s="3">
         <v>28004</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="I109" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C110" s="3">
         <v>21</v>
       </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="3">
         <v>8002</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="I110" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C111" s="3">
@@ -4327,175 +4321,175 @@
       <c r="D111" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F111" s="3">
         <v>8901</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H111" s="3" t="s">
+      <c r="G111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="I111" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C112" s="3">
         <v>7</v>
       </c>
       <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F112" s="3">
         <v>28004</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H112" s="3" t="s">
+      <c r="G112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="I112" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C113" s="3">
         <v>38</v>
       </c>
       <c r="D113" s="3"/>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="3">
         <v>8014</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H113" s="3" t="s">
+      <c r="G113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="I113" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C114" s="3">
         <v>87</v>
       </c>
       <c r="D114" s="3"/>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F114" s="3">
         <v>8860</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="I114" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C115" s="3">
         <v>33</v>
       </c>
       <c r="D115" s="3"/>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F115" s="3">
         <v>8003</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="H115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="I115" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C116" s="3">
         <v>600</v>
       </c>
       <c r="D116" s="3"/>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="3">
         <v>8018</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="I116" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C117" s="3">
         <v>6</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F117" s="3">
         <v>8860</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="I117" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C118" s="3">
@@ -4504,123 +4498,123 @@
       <c r="D118" s="3">
         <v>0</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="3">
         <v>8028</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="G118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C119" s="3">
         <v>236</v>
       </c>
       <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F119" s="3">
         <v>8008</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H119" s="3" t="s">
+      <c r="G119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="I119" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C120" s="3">
         <v>4</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="3">
         <v>8028</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="I120" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C121" s="3">
         <v>166</v>
       </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="3">
         <v>8008</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H121" s="3" t="s">
+      <c r="G121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="I121" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C122" s="3">
         <v>2</v>
       </c>
       <c r="D122" s="3"/>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="3">
         <v>8001</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H122" s="3" t="s">
+      <c r="G122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="I122" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C123" s="3">
@@ -4629,25 +4623,25 @@
       <c r="D123" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F123" s="3">
         <v>31007</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H123" s="3" t="s">
+      <c r="G123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="I123" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C124" s="3">
@@ -4656,48 +4650,48 @@
       <c r="D124" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="3">
         <v>8015</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="H124" s="2"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C125" s="3">
         <v>10</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="3">
         <v>8002</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H125" s="3" t="s">
+      <c r="G125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="I125" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C126" s="3">
@@ -4706,50 +4700,50 @@
       <c r="D126" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F126" s="3">
         <v>8005</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H126" s="3" t="s">
+      <c r="G126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="I126" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C127" s="3">
         <v>184</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F127" s="3">
         <v>8860</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="I127" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -4758,200 +4752,200 @@
       <c r="D128" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="3">
         <v>8001</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H128" s="3" t="s">
+      <c r="G128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="I128" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C129" s="3">
         <v>4</v>
       </c>
       <c r="D129" s="3"/>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="3">
         <v>8002</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" s="3" t="s">
+      <c r="G129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="I129" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C130" s="3">
         <v>126</v>
       </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="3">
         <v>8002</v>
       </c>
-      <c r="G130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H130" s="3" t="s">
+      <c r="G130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="I130" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C131" s="3">
         <v>539</v>
       </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="3">
         <v>8011</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" s="3" t="s">
+      <c r="G131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="I131" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C132" s="3">
         <v>113</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="3">
         <v>8004</v>
       </c>
-      <c r="G132" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H132" s="3" t="s">
+      <c r="G132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="I132" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C133" s="4">
         <v>45176</v>
       </c>
       <c r="D133" s="3"/>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="3">
         <v>8007</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="I133" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="3"/>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="3">
         <v>8003</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="I134" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C135" s="3">
         <v>105</v>
       </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="3">
         <v>8001</v>
       </c>
-      <c r="G135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H135" s="3" t="s">
+      <c r="G135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="I135" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C136" s="3">
@@ -4960,25 +4954,25 @@
       <c r="D136" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F136" s="3">
         <v>28010</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H136" s="3" t="s">
+      <c r="G136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="I136" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C137" s="3">
@@ -4987,100 +4981,100 @@
       <c r="D137" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="3">
         <v>8003</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="I137" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C138" s="3">
         <v>240</v>
       </c>
       <c r="D138" s="3"/>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F138" s="3">
         <v>8860</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H138" s="3" t="s">
+      <c r="G138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="I138" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C139" s="3">
         <v>21</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="3">
         <v>8025</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H139" s="3" t="s">
+      <c r="G139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="I139" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C140" s="3">
         <v>4</v>
       </c>
       <c r="D140" s="3"/>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="3">
         <v>8010</v>
       </c>
-      <c r="G140" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H140" s="3" t="s">
+      <c r="G140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="I140" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C141" s="3">
@@ -5089,50 +5083,50 @@
       <c r="D141" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F141" s="3">
         <v>3503</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G141" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H141" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="I141" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>290</v>
       </c>
       <c r="C142" s="3">
         <v>3</v>
       </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="2" t="s">
         <v>291</v>
       </c>
       <c r="F142" s="3">
         <v>14006</v>
       </c>
-      <c r="G142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H142" s="3" t="s">
+      <c r="G142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H142" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="I142" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C143" s="3">
@@ -5141,25 +5135,25 @@
       <c r="D143" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F143" s="3">
         <v>29008</v>
       </c>
-      <c r="G143" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H143" s="3" t="s">
+      <c r="G143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="I143" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C144" s="3">
@@ -5168,98 +5162,98 @@
       <c r="D144" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="3">
         <v>8018</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" s="3" t="s">
+      <c r="G144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H144" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="I144" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C145" s="3">
         <v>7</v>
       </c>
       <c r="D145" s="3"/>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F145" s="3">
         <v>8188</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="H145" s="2"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C146" s="3">
         <v>16</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="3">
         <v>8025</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G146" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="I146" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C147" s="3">
         <v>4</v>
       </c>
       <c r="D147" s="3"/>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="3">
         <v>8003</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G147" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="H147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="I147" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C148" s="3">
@@ -5268,100 +5262,100 @@
       <c r="D148" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F148" s="3">
         <v>7181</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H148" s="3" t="s">
+      <c r="G148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="I148" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>309</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D149" s="3"/>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="2" t="s">
         <v>310</v>
       </c>
       <c r="F149" s="3">
         <v>41309</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G149" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="H149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="I149" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>312</v>
       </c>
       <c r="C150" s="3">
         <v>25</v>
       </c>
       <c r="D150" s="3"/>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F150" s="3">
         <v>29649</v>
       </c>
-      <c r="G150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H150" s="3" t="s">
+      <c r="G150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="I150" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C151" s="3">
         <v>7</v>
       </c>
       <c r="D151" s="3"/>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F151" s="3">
         <v>8002</v>
       </c>
-      <c r="G151" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H151" s="3" t="s">
+      <c r="G151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="I151" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C152" s="3">
@@ -5370,121 +5364,121 @@
       <c r="D152" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="3">
         <v>8015</v>
       </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C153" s="3">
         <v>12</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F153" s="3">
         <v>48460</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="I153" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C154" s="3">
         <v>12</v>
       </c>
       <c r="D154" s="3"/>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F154" s="3">
         <v>7001</v>
       </c>
-      <c r="G154" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H154" s="3" t="s">
+      <c r="G154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="I154" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
       </c>
       <c r="D155" s="3"/>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="2" t="s">
         <v>327</v>
       </c>
       <c r="F155" s="3">
         <v>48902</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="I155" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C156" s="3">
         <v>158</v>
       </c>
       <c r="D156" s="3"/>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F156" s="3">
         <v>8013</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G156" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="I156" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -5493,75 +5487,75 @@
       <c r="D157" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="3">
         <v>8001</v>
       </c>
-      <c r="G157" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H157" s="3" t="s">
+      <c r="G157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="I157" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D158" s="3"/>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F158" s="3">
         <v>29016</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158" s="3" t="s">
+      <c r="G158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="I158" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C159" s="3">
         <v>5</v>
       </c>
       <c r="D159" s="3"/>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="2" t="s">
         <v>336</v>
       </c>
       <c r="F159" s="3">
         <v>31180</v>
       </c>
-      <c r="G159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H159" s="3" t="s">
+      <c r="G159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="I159" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C160" s="3">
@@ -5570,121 +5564,121 @@
       <c r="D160" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="2" t="s">
         <v>339</v>
       </c>
       <c r="F160" s="3">
         <v>47193</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160" s="3" t="s">
+      <c r="G160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="I160" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C161" s="3">
         <v>518</v>
       </c>
       <c r="D161" s="3"/>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F161" s="3">
         <v>8901</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="G161" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="I161" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C162" s="3">
         <v>302</v>
       </c>
       <c r="D162" s="3"/>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F162" s="3">
         <v>8901</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="I162" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C163" s="3">
         <v>3</v>
       </c>
       <c r="D163" s="3"/>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="2" t="s">
         <v>346</v>
       </c>
       <c r="F163" s="3">
         <v>48600</v>
       </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C164" s="3">
         <v>347</v>
       </c>
       <c r="D164" s="3"/>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="3">
         <v>8025</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="I164" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C165" s="3">
@@ -5693,266 +5687,103 @@
       <c r="D165" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F165" s="3">
         <v>30310</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="I165" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C166" s="3">
         <v>86</v>
       </c>
       <c r="D166" s="3"/>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="3">
         <v>8008</v>
       </c>
-      <c r="G166" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H166" s="3" t="s">
+      <c r="G166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="I166" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C167" s="3">
         <v>10</v>
       </c>
       <c r="D167" s="3"/>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F167" s="3">
         <v>8030</v>
       </c>
-      <c r="G167" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H167" s="3" t="s">
+      <c r="G167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="I167" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C168" s="3">
         <v>12</v>
       </c>
       <c r="D168" s="3"/>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="3">
         <v>8028</v>
       </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="BD - LA JABATA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFHKQA4/view" xr:uid="{A7FE5021-7AA0-4815-869A-9F9FF407C5DE}"/>
-    <hyperlink ref="A2" r:id="rId2" tooltip="BD - INDY BY CABO" display="https://damm.lightning.force.com/lightning/r/0017U000009KzHDQA0/view" xr:uid="{7334F96A-3240-4229-A257-72C6A109F630}"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="BD - FONDA LA PALMERA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFEOQA4/view" xr:uid="{3A1A47CD-F130-47BE-839E-F34BC63798C5}"/>
-    <hyperlink ref="A4" r:id="rId4" tooltip="BD - COLLONUT" display="https://damm.lightning.force.com/lightning/r/0017R00002lAQHgQAO/view" xr:uid="{A89DB4C1-257E-4625-9A3A-49CB231BAAC9}"/>
-    <hyperlink ref="A5" r:id="rId5" tooltip="BD - LA MALA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBPq7QAG/view" xr:uid="{D3B7B3F5-363B-41F8-B140-D1AFDF2F44A0}"/>
-    <hyperlink ref="A6" r:id="rId6" tooltip="BD - RECO D'EN MARGARIT" display="https://damm.lightning.force.com/lightning/r/0017R00002lADofQAG/view" xr:uid="{37DBA9F5-DD9A-4B7B-8227-D8F74AF59E6C}"/>
-    <hyperlink ref="A7" r:id="rId7" tooltip="BD - PINTXOTERAPIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBN51QAG/view" xr:uid="{F11F9132-8804-42A3-B7A3-8B9C366725E4}"/>
-    <hyperlink ref="A8" r:id="rId8" tooltip="BD - BAR ARTESANS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAF5RQAW/view" xr:uid="{0AA16B96-7DBF-4246-B536-2ACAA88A3107}"/>
-    <hyperlink ref="A9" r:id="rId9" tooltip="BD - WOOKAH" display="https://damm.lightning.force.com/lightning/r/0017R00002lAhBUQA0/view" xr:uid="{08F83E5E-3E5A-4F79-8C11-ABFA7F04D316}"/>
-    <hyperlink ref="A10" r:id="rId10" tooltip="BD - OASIS 2" display="https://damm.lightning.force.com/lightning/r/0017R00002lAejvQAC/view" xr:uid="{13C8D1EC-F801-4EE8-8E0C-820B0064945D}"/>
-    <hyperlink ref="A11" r:id="rId11" tooltip="BD - OBAMA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFbAQAW/view" xr:uid="{B61A275B-D114-4C5C-B17A-1D12D1C79585}"/>
-    <hyperlink ref="A12" r:id="rId12" tooltip="BD - REST. NACIONAL" display="https://damm.lightning.force.com/lightning/r/0017R00002lAKrgQAG/view" xr:uid="{C3C18304-A527-4FD7-886D-C935074462AB}"/>
-    <hyperlink ref="A13" r:id="rId13" tooltip="BD - EL RELOJ" display="https://damm.lightning.force.com/lightning/r/0017R00002lAEx0QAG/view" xr:uid="{2B2ED668-128F-4D90-9EC9-5C4DC39BC77E}"/>
-    <hyperlink ref="A14" r:id="rId14" tooltip="BD - REST. VINITUS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAO54QAG/view" xr:uid="{A040F0D4-0983-4453-A474-9E3DFB93354C}"/>
-    <hyperlink ref="A15" r:id="rId15" tooltip="BD - REST. SUARNA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAODJQA4/view" xr:uid="{7A005A0A-094F-402D-8E98-D3837AA5028F}"/>
-    <hyperlink ref="A16" r:id="rId16" tooltip="BD - OCHO PATAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAODPQA4/view" xr:uid="{47E5AC22-0750-4B95-81B2-F4BA21DCA2BA}"/>
-    <hyperlink ref="A17" r:id="rId17" tooltip="BD - BRASES BEER" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFiVQAW/view" xr:uid="{FE243066-0E78-4646-9FBD-66E32050F2B0}"/>
-    <hyperlink ref="A18" r:id="rId18" tooltip="BD - LA CAÑOTA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHOuQAO/view" xr:uid="{D65EBD79-1AE2-400D-B63A-106A5EABE407}"/>
-    <hyperlink ref="A19" r:id="rId19" tooltip="BD - CLUB SODA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAOFCQA4/view" xr:uid="{796AC1FE-B8E1-4E27-969A-70848F084180}"/>
-    <hyperlink ref="A20" r:id="rId20" tooltip="BD - CASA GUINART" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFFwQAO/view" xr:uid="{26627F01-1DDC-4F42-803C-56DF97F849FB}"/>
-    <hyperlink ref="A21" r:id="rId21" tooltip="BD - BICNIC" display="https://damm.lightning.force.com/lightning/r/0017R00002lARyhQAG/view" xr:uid="{EF654F4D-3B73-41A6-81B7-09CFF106C8B4}"/>
-    <hyperlink ref="A22" r:id="rId22" tooltip="BD - PEPA TOMATE" display="https://damm.lightning.force.com/lightning/r/0017R00002lBRgBQAW/view" xr:uid="{EEA1AA08-FC4C-45B1-8523-5FE4DB6E37F1}"/>
-    <hyperlink ref="A23" r:id="rId23" tooltip="BD - CALABRASA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFhFQAW/view" xr:uid="{36B34734-ECB7-4E78-8B44-5628190661BB}"/>
-    <hyperlink ref="A24" r:id="rId24" tooltip="BD - JAMBOREE - TARANTOS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAEInQAO/view" xr:uid="{0FAEB0A1-FA3B-40AD-B07E-FB5C961704B2}"/>
-    <hyperlink ref="A25" r:id="rId25" tooltip="BD - LA LUCHA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAQSAQA4/view" xr:uid="{1AEED6EF-1571-48AB-8DE7-23609B156649}"/>
-    <hyperlink ref="A26" r:id="rId26" tooltip="BD - BAR LIDO" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHMlQAO/view" xr:uid="{140EFD19-0331-4F13-9A46-72E5F79595EE}"/>
-    <hyperlink ref="A27" r:id="rId27" tooltip="BD - VELISSIMA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAjwKQAS/view" xr:uid="{1BA49E04-0DCB-482D-B5F0-92A7A967CE68}"/>
-    <hyperlink ref="A28" r:id="rId28" tooltip="BD - TAPAS GÜELL" display="https://damm.lightning.force.com/lightning/r/0017R00002lAG1TQAW/view" xr:uid="{A38FA1A9-09F1-46D1-B09B-713F4555261E}"/>
-    <hyperlink ref="A29" r:id="rId29" tooltip="BD-POCA SOLTA" display="https://damm.lightning.force.com/lightning/r/0017R00002lp5EgQAI/view" xr:uid="{53D07317-86A5-4134-AAC0-0A80E03121DE}"/>
-    <hyperlink ref="A30" r:id="rId30" tooltip="BD - CHALITO" display="https://damm.lightning.force.com/lightning/r/0017R00002lAGFBQA4/view" xr:uid="{52D902C1-6C6A-4C1E-8FE3-324D69D9863C}"/>
-    <hyperlink ref="A31" r:id="rId31" tooltip="BD - BAR MARTIN'S" display="https://damm.lightning.force.com/lightning/r/0017R00002lAGcMQAW/view" xr:uid="{5073A2C2-CC9E-40E0-8B56-A30EE521AA9C}"/>
-    <hyperlink ref="A32" r:id="rId32" tooltip="BD - RESTAURANTE LUIGI" display="https://damm.lightning.force.com/lightning/r/0017R00002lAOW8QAO/view" xr:uid="{F09E3760-457D-4526-BF54-3CF16C23293A}"/>
-    <hyperlink ref="A33" r:id="rId33" tooltip="BD - ANANDA BEACH" display="https://damm.lightning.force.com/lightning/r/0017R00002lAG3nQAG/view" xr:uid="{B6C9398D-8291-4036-A9A7-0DFA2819DA82}"/>
-    <hyperlink ref="A34" r:id="rId34" tooltip="BD - BAR QUILLO" display="https://damm.lightning.force.com/lightning/r/0017R00002lAEx9QAG/view" xr:uid="{2FA253A9-E515-4689-8479-EACABE57FF17}"/>
-    <hyperlink ref="A35" r:id="rId35" tooltip="BD - CASINO ALIANÇA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAMOGQA4/view" xr:uid="{AC467DCB-9CA0-45FE-A63F-D987D22CF299}"/>
-    <hyperlink ref="A36" r:id="rId36" tooltip="BD - LA BOMBETA-2" display="https://damm.lightning.force.com/lightning/r/0017R00002lB7N0QAK/view" xr:uid="{36CED7CF-623A-495E-A180-874B5135F5CE}"/>
-    <hyperlink ref="A37" r:id="rId37" tooltip="BD - BAR PASATAPAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAKXzQAO/view" xr:uid="{9AE3BE31-7BEE-4AAC-B785-F92F7F4C705C}"/>
-    <hyperlink ref="A38" r:id="rId38" tooltip="BD - SEVENTY" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFEvQAO/view" xr:uid="{BD1785D6-C9C8-4AF4-AE0F-3808B2E2973E}"/>
-    <hyperlink ref="A39" r:id="rId39" tooltip="BD - BOKET" display="https://damm.lightning.force.com/lightning/r/0017R00002lBTDkQAO/view" xr:uid="{AB7DDDA4-49C4-423B-8EBD-37196F437EE9}"/>
-    <hyperlink ref="A40" r:id="rId40" tooltip="BD - CAN PLAÇA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFQtQAO/view" xr:uid="{C7C371F1-0FE6-41E0-90F4-81011328E1D3}"/>
-    <hyperlink ref="A41" r:id="rId41" tooltip="BD - BAR MARTIN'S" display="https://damm.lightning.force.com/lightning/r/0017R00002lAH7oQAG/view" xr:uid="{5E4B89BD-0E8B-4EF8-A8C4-06026297D062}"/>
-    <hyperlink ref="A42" r:id="rId42" tooltip="BD- POMA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFbPQAW/view" xr:uid="{68913287-7F3A-43A9-B7A4-0005233AFD51}"/>
-    <hyperlink ref="A43" r:id="rId43" tooltip="BD - L'ENRIC" display="https://damm.lightning.force.com/lightning/r/0017R00002lBDSzQAO/view" xr:uid="{DF44D29A-1491-4F76-9341-18520A11BF69}"/>
-    <hyperlink ref="A44" r:id="rId44" tooltip="BD - NASS BEACH" display="https://damm.lightning.force.com/lightning/r/0017R00002lAKpKQAW/view" xr:uid="{93E8781E-CB07-440C-9891-42355FA251B7}"/>
-    <hyperlink ref="A45" r:id="rId45" tooltip="BD - RESTAURANTE CHARRITO" display="https://damm.lightning.force.com/lightning/r/0017R00002lBG5nQAG/view" xr:uid="{4089830B-77C2-4FB5-8E8E-01265421D98D}"/>
-    <hyperlink ref="A46" r:id="rId46" tooltip="BD - MALEDUCAT" display="https://damm.lightning.force.com/lightning/r/0017R00002lBW9qQAG/view" xr:uid="{49AC3ADE-C1F8-4949-B8A1-DD8D4BFB32FB}"/>
-    <hyperlink ref="A47" r:id="rId47" tooltip="BD - SONORA" display="https://damm.lightning.force.com/lightning/r/0017R00002lALvaQAG/view" xr:uid="{9C1DB301-BE2B-48AE-83C4-5B4AFDA48C29}"/>
-    <hyperlink ref="A48" r:id="rId48" tooltip="BD-LA NOVA SELVA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAJs9QAG/view" xr:uid="{DB002041-9B82-469B-8840-D9C5C0E1FA78}"/>
-    <hyperlink ref="A49" r:id="rId49" tooltip="BD - LA FOGA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBP5mQAG/view" xr:uid="{899C86E1-214B-4F84-A35B-203D88AFA23D}"/>
-    <hyperlink ref="A50" r:id="rId50" tooltip="BD - CATACROQUET" display="https://damm.lightning.force.com/lightning/r/0017R00002lAPTmQAO/view" xr:uid="{6BF27F67-0349-49BF-9E15-FCE97E1D2E44}"/>
-    <hyperlink ref="A51" r:id="rId51" tooltip="BD - ZURICH BAR" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFHTQA4/view" xr:uid="{E8F6162B-D137-43B5-AFA8-A1A65437282F}"/>
-    <hyperlink ref="A52" r:id="rId52" tooltip="BD - BAR JAICA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAO7bQAG/view" xr:uid="{B0CEB896-660D-4B65-9153-FB7112D9AA4B}"/>
-    <hyperlink ref="A53" r:id="rId53" tooltip="BD - D9" display="https://damm.lightning.force.com/lightning/r/0017R00002lAMaeQAG/view" xr:uid="{6D44AC31-2291-48AA-AEE0-98E945302EB7}"/>
-    <hyperlink ref="A54" r:id="rId54" tooltip="BD - OASSIS BARCELONA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHlDQAW/view" xr:uid="{D0745CD1-13E3-496F-BF9D-322A21EA938F}"/>
-    <hyperlink ref="A55" r:id="rId55" tooltip="BD - REST. BAYO" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFk2QAG/view" xr:uid="{9F1B8D4E-95F7-40E5-A4A2-F8169F54139C}"/>
-    <hyperlink ref="A56" r:id="rId56" tooltip="BD - EL BOCAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAdbhQAC/view" xr:uid="{68059C6A-DFBC-4669-8A2B-83FCC15927D7}"/>
-    <hyperlink ref="A57" r:id="rId57" tooltip="BD - BELLVITJA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAPUpQAO/view" xr:uid="{17B37529-EDA5-442A-A340-B67017BF0737}"/>
-    <hyperlink ref="A58" r:id="rId58" tooltip="BD - BELLA INSTANBUL" display="https://damm.lightning.force.com/lightning/r/0017R00002lAdcWQAS/view" xr:uid="{D77F8B86-44BD-4E6C-8800-E210D27F90AB}"/>
-    <hyperlink ref="A59" r:id="rId59" tooltip="BD - BAR TABERNA MAITEA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAH8JQAW/view" xr:uid="{DAE47CAA-740C-4B29-A80E-2B2FCFE89BE9}"/>
-    <hyperlink ref="A60" r:id="rId60" tooltip="BD - VICIO URGELL" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHA8QAO/view" xr:uid="{83932646-39AF-4E10-8CAD-AADA81DD561D}"/>
-    <hyperlink ref="A61" r:id="rId61" tooltip="BD - SK RTE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHSkQAO/view" xr:uid="{26CA3572-3D26-4C2B-BB99-9E0F73160964}"/>
-    <hyperlink ref="A62" r:id="rId62" tooltip="BD - CENTRAL RAMBLA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAiNBQA0/view" xr:uid="{0FD5060B-CBA4-4D55-9A86-4F3BDD66061A}"/>
-    <hyperlink ref="A63" r:id="rId63" tooltip="BD - LA CHIRIGOTA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAIdTQAW/view" xr:uid="{81977D94-A790-433D-8B81-072AD9DFE48D}"/>
-    <hyperlink ref="A64" r:id="rId64" tooltip="BD - MARINA VELA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAdfNQAS/view" xr:uid="{07635315-A964-4298-AF1B-43B594A5EBD8}"/>
-    <hyperlink ref="A65" r:id="rId65" tooltip="BD - PEPA TOMATE PARLAMENT" display="https://damm.lightning.force.com/lightning/r/0017R00002lBXxuQAG/view" xr:uid="{08770F35-B77E-4DA8-90EB-8E9A9D12F79C}"/>
-    <hyperlink ref="A66" r:id="rId66" tooltip="BD - AR QUIMET" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFQkQAO/view" xr:uid="{B5AFAFBC-5E24-4F1E-A26A-583B562B9F81}"/>
-    <hyperlink ref="A67" r:id="rId67" tooltip="BD - BAR MAKAMAKA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAO8wQAG/view" xr:uid="{6F8CAA08-E5B2-4FAD-BF7A-1CC79E987395}"/>
-    <hyperlink ref="A68" r:id="rId68" tooltip="BD - LA FILMOTECA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAGHhQAO/view" xr:uid="{BA66DB7F-C44B-4470-9191-1FAFEEE196D5}"/>
-    <hyperlink ref="A69" r:id="rId69" tooltip="BD - BAR ARIBAU 3" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHFpQAO/view" xr:uid="{17D84F8A-723B-488D-A5D1-5431CCEFC1EB}"/>
-    <hyperlink ref="A70" r:id="rId70" tooltip="BD - LUIGI VIA LAIETANA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAk3cQAC/view" xr:uid="{D892B940-AD93-4F08-A53B-86621E6AE56F}"/>
-    <hyperlink ref="A71" r:id="rId71" tooltip="BD - BAR CAL XOSE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAiWBQA0/view" xr:uid="{D515A119-722D-453C-AEB5-2B5E0EBEE942}"/>
-    <hyperlink ref="A72" r:id="rId72" tooltip="BD - CANALETES CERVECERIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFGYQA4/view" xr:uid="{C24261E3-9796-4B44-8CFC-21A1F023BA06}"/>
-    <hyperlink ref="A73" r:id="rId73" tooltip="BD - OPERA SAMFAINA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBT9aQAG/view" xr:uid="{2E2910E6-AF36-4585-B71E-1A47308B4FC4}"/>
-    <hyperlink ref="A74" r:id="rId74" tooltip="BD - CERVECERIA CIUDAD CONDAL" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHHuQAO/view" xr:uid="{E1614779-CBF3-4D0B-879C-02D69A0211F5}"/>
-    <hyperlink ref="A75" r:id="rId75" tooltip="BD - BAR TXAPELDUN" display="https://damm.lightning.force.com/lightning/r/0017R00002lAGMzQAO/view" xr:uid="{3CC3DF9A-2AE3-4E85-AE64-36C57DB732A4}"/>
-    <hyperlink ref="A76" r:id="rId76" tooltip="BD - BAR JAICA II" display="https://damm.lightning.force.com/lightning/r/0017R00002lAK5cQAG/view" xr:uid="{7FBB041C-7C60-4EAC-8650-3603D56537D0}"/>
-    <hyperlink ref="A77" r:id="rId77" tooltip="BD - CAFET. SABOR CAFE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHfbQAG/view" xr:uid="{2867EFDB-53AD-4001-BDFD-E3C5D4BB94AF}"/>
-    <hyperlink ref="A78" r:id="rId78" tooltip="BD - EL MERCAT BARCELONETA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAJvHQAW/view" xr:uid="{5C5DD931-5FFE-4DDF-961D-8D440D159213}"/>
-    <hyperlink ref="A79" r:id="rId79" tooltip="BD - REST. GLORIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAF5BQAW/view" xr:uid="{8C455993-E6D6-450E-AE41-2F04687397B8}"/>
-    <hyperlink ref="A80" r:id="rId80" tooltip="BD - PURA BRASA CATALUNYA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHYfQAO/view" xr:uid="{681BC3B9-7E1F-4FF3-96D1-18EECD6212B4}"/>
-    <hyperlink ref="A81" r:id="rId81" tooltip="BD - RESTAURANTE LA FLAUTA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAH9sQAG/view" xr:uid="{EF2C4AFD-E101-4B9A-B9EB-C193EFA7A106}"/>
-    <hyperlink ref="A82" r:id="rId82" tooltip="BD - TAPAS SAN MIGUEL" display="https://damm.lightning.force.com/lightning/r/0017R00002lBJDAQA4/view" xr:uid="{C1936AC0-B3E7-419F-A120-1C91551EE132}"/>
-    <hyperlink ref="A83" r:id="rId83" tooltip="BD - LOMO ALTO" display="https://damm.lightning.force.com/lightning/r/0017R00002lBTs5QAG/view" xr:uid="{68654DE8-93DB-4629-8132-F1D7611DBD07}"/>
-    <hyperlink ref="A84" r:id="rId84" tooltip="BD - VIRREY" display="https://damm.lightning.force.com/lightning/r/0017R00002n3b4wQAA/view" xr:uid="{47EDDD89-1AB8-486F-A4FF-9584A0F8E838}"/>
-    <hyperlink ref="A85" r:id="rId85" tooltip="BD - BAR SANDOR 1944" display="https://damm.lightning.force.com/lightning/r/0017R00002lAH8MQAW/view" xr:uid="{E1679A90-7F15-4223-99B4-37F2DB712E26}"/>
-    <hyperlink ref="A86" r:id="rId86" tooltip="BD - NBA CAFE" display="https://damm.lightning.force.com/lightning/r/0017R00002lBXNzQAO/view" xr:uid="{18623A70-B12F-4CC2-8FDF-43BF62F66229}"/>
-    <hyperlink ref="A87" r:id="rId87" tooltip="BD - FLAUTA RAMBLA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHKWQA4/view" xr:uid="{76BB695B-861C-4209-BE93-DB92516618BA}"/>
-    <hyperlink ref="A88" r:id="rId88" tooltip="BD - VINITUS MADRID-BARCELONA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHOwQAO/view" xr:uid="{41C0B673-FB7C-44CF-8B74-B4ADE455D891}"/>
-    <hyperlink ref="A89" r:id="rId89" tooltip="BD - LA FLACA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAUUBQA4/view" xr:uid="{C18B1ADB-DFF9-4416-91FB-6605DAD75D6E}"/>
-    <hyperlink ref="A90" r:id="rId90" tooltip="BD - TAVERNA DE VIGO_LOMBARDERO" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFdTQAW/view" xr:uid="{93266755-5DE4-43B3-8121-CAF04F3F7919}"/>
-    <hyperlink ref="A91" r:id="rId91" tooltip="BD - BAR LA ESQUINICA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFK6QAO/view" xr:uid="{F4E04516-EADF-47C0-A468-5D69392ED518}"/>
-    <hyperlink ref="A92" r:id="rId92" tooltip="BD - TAPAS &amp; BEER" display="https://damm.lightning.force.com/lightning/r/0017R00002lApn0QAC/view" xr:uid="{BC19BBE8-3E33-42FD-81D5-37D20B48EEDE}"/>
-    <hyperlink ref="A93" r:id="rId93" tooltip="BD - REST. GREEN'S" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHGMQA4/view" xr:uid="{538CDEDF-C250-4673-9970-BAB9C5599FC8}"/>
-    <hyperlink ref="A94" r:id="rId94" tooltip="BD - BAR CARABELA CAFE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFSdQAO/view" xr:uid="{DBDAEA09-B8B9-478B-A3DC-DF771B79B410}"/>
-    <hyperlink ref="A95" r:id="rId95" tooltip="RESTAURANTE LEON" display="https://damm.lightning.force.com/lightning/r/0017R00002lAyIxQAK/view" xr:uid="{B310891A-BB64-449D-BA9C-D7EDB4AD2A12}"/>
-    <hyperlink ref="A96" r:id="rId96" tooltip="BD - REST. FERRAN 59" display="https://damm.lightning.force.com/lightning/r/0017R00002lB5xfQAC/view" xr:uid="{12A7E6B2-2C1C-48C1-B855-D210BB6C20ED}"/>
-    <hyperlink ref="A97" r:id="rId97" tooltip="BD - LAFUENTE BAR" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHBAQA4/view" xr:uid="{3741CE2B-35D2-4953-8C09-666D5A294400}"/>
-    <hyperlink ref="A98" r:id="rId98" tooltip="BD - BAAN RESTAURANTE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAyEOQA0/view" xr:uid="{F6DC52EC-F97F-4E98-BFF6-31239A9B6642}"/>
-    <hyperlink ref="A99" r:id="rId99" tooltip="BD - EXPAT CAFE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAOTDQA4/view" xr:uid="{99B8C554-EE72-411E-9D96-F1D0597B7FB8}"/>
-    <hyperlink ref="A100" r:id="rId100" tooltip="BD - TAPA TAPA 2" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHOWQA4/view" xr:uid="{EC8BE942-F04B-40E7-B982-FFDA3AB3EE4D}"/>
-    <hyperlink ref="A101" r:id="rId101" tooltip="BD - RTE. EL MODERNISTA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBRo9QAG/view" xr:uid="{785EAA55-9805-496D-9929-A9FD64F2BDD0}"/>
-    <hyperlink ref="A102" r:id="rId102" tooltip="BD - REST. LA PIAZZENZA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAMRpQAO/view" xr:uid="{4F742D4F-5CBA-4824-8953-2995FBDFC606}"/>
-    <hyperlink ref="A103" r:id="rId103" tooltip="BD - TABERNA PEDRAZA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAgDWQA0/view" xr:uid="{5142AE26-9A34-45A2-8C7B-EE91B25CBFD2}"/>
-    <hyperlink ref="A104" r:id="rId104" tooltip="BD - TRENDING TAPAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lBCEGQA4/view" xr:uid="{4934033C-0D12-451A-B21D-E4BFB13233FE}"/>
-    <hyperlink ref="A105" r:id="rId105" tooltip="BD- OVEN PRECIADOS" display="https://damm.lightning.force.com/lightning/r/0017R00002qzsBoQAI/view" xr:uid="{4CCA9B48-84F1-4B22-ADF3-8D459F14C858}"/>
-    <hyperlink ref="A106" r:id="rId106" tooltip="BD - BAR BABILONIA GAUDI" display="https://damm.lightning.force.com/lightning/r/0017R00002lAM9XQAW/view" xr:uid="{10A10782-7564-40F3-9957-0930F08B9C97}"/>
-    <hyperlink ref="A107" r:id="rId107" tooltip="BD - GIGI VON TAPAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFAJQA4/view" xr:uid="{F8223C30-BB2B-4DD5-99A7-9FC75EAFA452}"/>
-    <hyperlink ref="A108" r:id="rId108" tooltip="BD - BAR CERVECERIA INTERTAPA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAKHrQAO/view" xr:uid="{DBF23601-0F76-4E54-B1DB-E414499A4BF1}"/>
-    <hyperlink ref="A109" r:id="rId109" tooltip="BD - BAR ALMUDAYNA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBMaQQAW/view" xr:uid="{55E6922E-D45E-4A79-961D-56016015543D}"/>
-    <hyperlink ref="A110" r:id="rId110" tooltip="BD - HARD ROCK CAFE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFHOQA4/view" xr:uid="{BF6D7686-FE6D-4644-9757-0DE4F9D7BEF3}"/>
-    <hyperlink ref="A111" r:id="rId111" tooltip="BD - BALBIBLAU" display="https://damm.lightning.force.com/lightning/r/0017R00002lAEGbQAO/view" xr:uid="{10A74ED5-EF36-47C2-A49C-091D431C0FA9}"/>
-    <hyperlink ref="A112" r:id="rId112" tooltip="BD - CAFE COMERCIAL" display="https://damm.lightning.force.com/lightning/r/0017R00002lBXMhQAO/view" xr:uid="{21A68DC8-DA6F-4197-9BAC-7CCFFE71E42D}"/>
-    <hyperlink ref="A113" r:id="rId113" tooltip="BD - BIRRAS &amp; TAPAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAPRYQA4/view" xr:uid="{C2E3DF13-1E7A-4500-9D7A-0EE1F930A05A}"/>
-    <hyperlink ref="A114" r:id="rId114" tooltip="BD - XIRINGUITO MARAE" display="https://damm.lightning.force.com/lightning/r/0017R00002lAEX5QAO/view" xr:uid="{C196FE8B-677D-40A4-9E85-9DADDB11ED5C}"/>
-    <hyperlink ref="A115" r:id="rId115" tooltip="BD - BAR NAVIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAExAQAW/view" xr:uid="{81E21A0F-20DF-45B8-BBAA-302DEB20A557}"/>
-    <hyperlink ref="A116" r:id="rId116" tooltip="BD - REST. EL CLOT" display="https://damm.lightning.force.com/lightning/r/0017R00002lASmyQAG/view" xr:uid="{121B709F-3573-4FBF-B3A9-2B262B385AAF}"/>
-    <hyperlink ref="A117" r:id="rId117" tooltip="BD - FRANKFURT NUOVO" display="https://damm.lightning.force.com/lightning/r/0017R00002lAPRDQA4/view" xr:uid="{882DCF5D-A18E-4941-A77C-2A551891125E}"/>
-    <hyperlink ref="A118" r:id="rId118" tooltip="BD - BAR BAYO" display="https://damm.lightning.force.com/lightning/r/0010900001mreILAAY/view" xr:uid="{84600B04-6558-4F40-B2D9-822FC2FD27BC}"/>
-    <hyperlink ref="A119" r:id="rId119" tooltip="BD - BAR CERVESERIA CATALANA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHfEQAW/view" xr:uid="{1797E7ED-B334-442B-9252-1645825D9514}"/>
-    <hyperlink ref="A120" r:id="rId120" tooltip="BD - HOTEL PRINCESA SOFIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAH3AQAW/view" xr:uid="{E8CA1B9B-3D50-470B-8D0D-AA6CFE86BE02}"/>
-    <hyperlink ref="A121" r:id="rId121" tooltip="BD - LA FLAUTA 2" display="https://damm.lightning.force.com/lightning/r/0017R00002lAH7pQAG/view" xr:uid="{895FDED8-5B05-4B20-9929-EA236D98366B}"/>
-    <hyperlink ref="A122" r:id="rId122" tooltip="BD - REST. ELS TRES TOMBS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFSNQA4/view" xr:uid="{F9531D83-24D8-4425-86FF-9DFF75683B3C}"/>
-    <hyperlink ref="A123" r:id="rId123" tooltip="BD - IRUÑABERRI" display="https://damm.lightning.force.com/lightning/r/0017R00002lAgJYQA0/view" xr:uid="{6A6FCFFF-9957-4BA3-84AD-1C276B0EBF97}"/>
-    <hyperlink ref="A124" r:id="rId124" tooltip="BD - TAPA TAPA ARENAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAGFZQA4/view" xr:uid="{2818209C-04E8-49B3-B4D1-32AEC2E24F07}"/>
-    <hyperlink ref="A125" r:id="rId125" tooltip="BD - EL REY DE COPAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAPMVQA4/view" xr:uid="{4A23D405-17D0-4806-9F1C-9CE2FC7F56EE}"/>
-    <hyperlink ref="A126" r:id="rId126" tooltip="BD - TASQUETA CAN FELIPA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAMJgQAO/view" xr:uid="{ABFDB73A-8424-42F1-9B3D-AEA41C67E47E}"/>
-    <hyperlink ref="A127" r:id="rId127" tooltip="BD - MARIA BONITA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAzKAQA0/view" xr:uid="{3BB0AEEE-8721-4BC2-8ECB-97B6A3E56B9C}"/>
-    <hyperlink ref="A128" r:id="rId128" tooltip="BD - QUIM DE LA BOQUERIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBBn7QAG/view" xr:uid="{31D66096-6E6C-4AF4-8A0E-E18FB003611C}"/>
-    <hyperlink ref="A129" r:id="rId129" tooltip="BD - PORTAL DE LA PAU" display="https://damm.lightning.force.com/lightning/r/0017R00002lAjEKQA0/view" xr:uid="{D1A1ED83-6DC5-4A25-B03A-A121600F9DA6}"/>
-    <hyperlink ref="A130" r:id="rId130" tooltip="BD - BAR REST. LA MOKA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAF48QAG/view" xr:uid="{45946935-8B53-46A7-BBA2-F7AF08E79282}"/>
-    <hyperlink ref="A131" r:id="rId131" tooltip="BD - BAR GUITO (GRUPO RELOJ)" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHiyQAG/view" xr:uid="{7A0E7493-09E0-4C0A-B4A2-B72CE2682E30}"/>
-    <hyperlink ref="A132" r:id="rId132" tooltip="BD - SALA APOLO (AUTOPARK, S.A.)" display="https://damm.lightning.force.com/lightning/r/0017R00002lAHLFQA4/view" xr:uid="{0B794F9B-7CBF-4D9E-A9F8-A666FCBEC563}"/>
-    <hyperlink ref="A133" r:id="rId133" tooltip="BD - TAPA TAPA 9" display="https://damm.lightning.force.com/lightning/r/0017R00002lAVRJQA4/view" xr:uid="{4A8A2052-1B0C-40FE-9BA9-FD7F7D23E11E}"/>
-    <hyperlink ref="A134" r:id="rId134" tooltip="BD - REST. MAR GRUP SOLOH" display="https://damm.lightning.force.com/lightning/r/0017R00002lAKcAQAW/view" xr:uid="{A8E93F1B-1A40-4EF4-BA27-0B2073F16EE6}"/>
-    <hyperlink ref="A135" r:id="rId135" tooltip="BD - EL RINCON DEL ARTISTA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAOQSQA4/view" xr:uid="{67E5B5E1-DF9B-41DE-9D76-85948206EF46}"/>
-    <hyperlink ref="A136" r:id="rId136" tooltip="BD- HERMANOS VINAGRE CHAMBERI" display="https://damm.lightning.force.com/lightning/r/0017R00002mfIYfQAM/view" xr:uid="{F78D3860-5C5D-49B4-B121-3422CA65D7E5}"/>
-    <hyperlink ref="A137" r:id="rId137" tooltip="BD - FRANKFURT LA CALA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAF69QAG/view" xr:uid="{EFF74449-37E9-4370-9F14-09B556C01D0C}"/>
-    <hyperlink ref="A138" r:id="rId138" tooltip="BD - TABERNA TIBURON" display="https://damm.lightning.force.com/lightning/r/0017R00002lAECXQA4/view" xr:uid="{7D59D7FF-BE9C-4B71-A3BC-F5D18689513A}"/>
-    <hyperlink ref="A139" r:id="rId139" tooltip="BD - CAN PIZZA (SAGRADA FAMILIA)" display="https://damm.lightning.force.com/lightning/r/0017R00002lAhAoQAK/view" xr:uid="{885B33BD-5031-438E-AF08-C1FC77B49076}"/>
-    <hyperlink ref="A140" r:id="rId140" tooltip="BD - BAR RESTAURANTE LA TRIUNFAL" display="https://damm.lightning.force.com/lightning/r/0017R00002lAeusQAC/view" xr:uid="{26BE5D83-725E-4E8D-9E3C-119AD726394D}"/>
-    <hyperlink ref="A141" r:id="rId141" tooltip="BD - MEMORIE'S PUB" display="https://damm.lightning.force.com/lightning/r/0017R00002lBHrHQAW/view" xr:uid="{C9C1830E-ED7C-4F4E-9A89-830B51440111}"/>
-    <hyperlink ref="A142" r:id="rId142" tooltip="BD - KAOTICO" display="https://damm.lightning.force.com/lightning/r/0017U00000AQ50CQAT/view" xr:uid="{3B13EA3B-0D9A-4F41-9C5D-FF885B55E9CD}"/>
-    <hyperlink ref="A143" r:id="rId143" tooltip="BD - TABERNA MITJANA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAhHXQA0/view" xr:uid="{2C6E8C4A-116D-442D-85CF-8A78994884CE}"/>
-    <hyperlink ref="A144" r:id="rId144" tooltip="BD - BAR SALA RAZZMATAZZ" display="https://damm.lightning.force.com/lightning/r/0017R00002lAM7NQAW/view" xr:uid="{BF90CA94-E2E9-43D4-BBC1-40B24EEFECCD}"/>
-    <hyperlink ref="A145" r:id="rId145" tooltip="B.D. RESTAURACIO" display="https://damm.lightning.force.com/lightning/r/0017R00002lAMu1QAG/view" xr:uid="{68CD7D58-239B-47EB-873F-1E11B675EB24}"/>
-    <hyperlink ref="A146" r:id="rId146" tooltip="BD - CAFETERIA LA SAGRADA CERVESSERIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAKWYQA4/view" xr:uid="{A091F973-5241-440E-90E5-8E6B1B11F290}"/>
-    <hyperlink ref="A147" r:id="rId147" tooltip="BD - BAR SANTA MARIA DEL MAR" display="https://damm.lightning.force.com/lightning/r/0017R00002lAF5NQAW/view" xr:uid="{54047363-473F-40DE-91FD-0AB20FBD1382}"/>
-    <hyperlink ref="A148" r:id="rId148" tooltip="BD - BALNEARIO ILLETAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lBQgfQAG/view" xr:uid="{5F10BD5A-D40C-4C23-B211-D8DF7BDA7344}"/>
-    <hyperlink ref="A149" r:id="rId149" tooltip="BD - CAMALEON NEGRO" display="https://damm.lightning.force.com/lightning/r/0017R00002lB3GoQAK/view" xr:uid="{1E74C821-E061-412E-B202-EF25178EC8DB}"/>
-    <hyperlink ref="A150" r:id="rId150" tooltip="BD - BAR DAVID" display="https://damm.lightning.force.com/lightning/r/0017R00002lBCIsQAO/view" xr:uid="{E0C4283B-9445-4AF5-8521-EBB97C246437}"/>
-    <hyperlink ref="A151" r:id="rId151" tooltip="BD - BOSC DE LES FADES" display="https://damm.lightning.force.com/lightning/r/0017R00002lANZxQAO/view" xr:uid="{F9D5B9BB-D0A7-4A04-A8C0-BC49ACE8396D}"/>
-    <hyperlink ref="A152" r:id="rId152" tooltip="BD - PURA BRASA ARENAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAudWQAS/view" xr:uid="{E48B59BE-39F5-43B8-942F-875E8D56E806}"/>
-    <hyperlink ref="A153" r:id="rId153" tooltip="BD - SUKALKI" display="https://damm.lightning.force.com/lightning/r/0017U000009J6CJQA0/view" xr:uid="{BFBC7D2C-6D5B-4403-9C3A-78DCF919631E}"/>
-    <hyperlink ref="A154" r:id="rId154" tooltip="BD - BAR MOLTABARRA" display="https://damm.lightning.force.com/lightning/r/0017R00002lBQrOQAW/view" xr:uid="{6D9AB706-9C7C-4762-9CA3-5344EC65F1EA}"/>
-    <hyperlink ref="A155" r:id="rId155" tooltip="BD - BAR ERETZA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAhGZQA0/view" xr:uid="{429DD987-8BD6-468C-9545-B0422B7F17A1}"/>
-    <hyperlink ref="A156" r:id="rId156" tooltip="BD - BAR MIRALL DEL ENCANTS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAMBMQA4/view" xr:uid="{7B661AA4-876E-4892-B3F4-B2A96269B256}"/>
-    <hyperlink ref="A157" r:id="rId157" tooltip="BD - BOQUERIA BAR (MERCAT BOQUERIA)" display="https://damm.lightning.force.com/lightning/r/0017R00002lAFFRQA4/view" xr:uid="{0156F80D-C28B-461D-AD09-4379E90E3B4E}"/>
-    <hyperlink ref="A158" r:id="rId158" tooltip="BD - CHIRINGUITO OASIS" display="https://damm.lightning.force.com/lightning/r/0017R00002lB7pZQAS/view" xr:uid="{C3F6EE8C-D97E-45CE-95AB-08D0680D8C6C}"/>
-    <hyperlink ref="A159" r:id="rId159" tooltip="BD - BAR GOXUA" display="https://damm.lightning.force.com/lightning/r/0017R00002lASTUQA4/view" xr:uid="{F4B3FD40-23D2-416A-8519-07102C037B8A}"/>
-    <hyperlink ref="A160" r:id="rId160" tooltip="BD - PLAN B" display="https://damm.lightning.force.com/lightning/r/0017R00002lAovnQAC/view" xr:uid="{439CCAE7-F5D8-4A06-B15B-0E62A8204805}"/>
-    <hyperlink ref="A161" r:id="rId161" tooltip="BD - BAR EL BARCO DE LA RAMBLA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAEGaQAO/view" xr:uid="{843F62C9-817C-432D-99BF-1691941F4D0A}"/>
-    <hyperlink ref="A162" r:id="rId162" tooltip="BD -LA FAVORITA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAEfOQAW/view" xr:uid="{FCFBDA3A-12CE-4CAA-BC46-916C69933BAB}"/>
-    <hyperlink ref="A163" r:id="rId163" tooltip="BD - ETXEKHI BERRIA" display="https://damm.lightning.force.com/lightning/r/0017R00002lB504QAC/view" xr:uid="{B5C146EA-F7E4-4ADE-B316-594E3848B516}"/>
-    <hyperlink ref="A164" r:id="rId164" tooltip="BD - REST. MESON A VEIGA" display="https://damm.lightning.force.com/lightning/r/0017R00002lAF1WQAW/view" xr:uid="{854D3A29-F391-4C08-AAC8-E9014CBF61D3}"/>
-    <hyperlink ref="A165" r:id="rId165" tooltip="BD - EL CHARRO" display="https://damm.lightning.force.com/lightning/r/0017R00002lBYE2QAO/view" xr:uid="{9A5AA2FC-94B3-40B5-AC40-2911B6829416}"/>
-    <hyperlink ref="A166" r:id="rId166" tooltip="BD -  BELLAVISTA DEL JARDIN DEL NOR" display="https://damm.lightning.force.com/lightning/r/0017R00002lBJKaQAO/view" xr:uid="{5A57F1FC-BFB7-4549-A94E-7F0728BB4977}"/>
-    <hyperlink ref="A167" r:id="rId167" tooltip="BD - BAR RECO DE LAS TAPAS" display="https://damm.lightning.force.com/lightning/r/0017R00002lAKbRQAW/view" xr:uid="{59E5A4A0-1408-4C04-9869-2415093266AC}"/>
-    <hyperlink ref="A168" r:id="rId168" tooltip="BD - SERUNION BARÇA CAFÈ BOULEVARD" display="https://damm.lightning.force.com/lightning/r/0017R00002lAxRMQA0/view" xr:uid="{4DED64D8-8238-478B-BD56-D7F35C26A9C5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId169"/>
 </worksheet>
 </file>